--- a/AgriMonitor/src/main/resources/static/excel/气候监测数据导入模板.xlsx
+++ b/AgriMonitor/src/main/resources/static/excel/气候监测数据导入模板.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36316CFE-A318-4C3B-BCB0-933488F38EFF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117AA87C-1B87-4FF0-8D34-E5C6E09EB916}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5820" yWindow="2220" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -165,12 +165,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -178,10 +175,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -525,90 +522,91 @@
   <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="16.625" customWidth="1"/>
-    <col min="4" max="4" width="14.875" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
-    <col min="6" max="6" width="12.875" customWidth="1"/>
-    <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="11.5" customWidth="1"/>
-    <col min="9" max="9" width="11.125" customWidth="1"/>
-    <col min="10" max="10" width="13.25" customWidth="1"/>
-    <col min="11" max="11" width="11.625" customWidth="1"/>
-    <col min="12" max="12" width="11.75" customWidth="1"/>
+    <col min="1" max="1" width="14" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13.125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="15" style="3" customWidth="1"/>
+    <col min="8" max="8" width="11.5" style="3" customWidth="1"/>
+    <col min="9" max="9" width="11.125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="13.25" style="3" customWidth="1"/>
+    <col min="11" max="11" width="11.625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="11.75" style="3" customWidth="1"/>
+    <col min="13" max="13" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4"/>
+      <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="D3" s="3"/>
-      <c r="E3" s="4"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="M4" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>0.5</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="1">
@@ -636,7 +634,7 @@
       <c r="A6" s="1">
         <v>2012</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="1">
@@ -669,7 +667,7 @@
       <c r="A7" s="1">
         <v>2013</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="1">
@@ -698,8 +696,8 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -713,7 +711,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
+      <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -728,7 +726,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
-      <c r="B10" s="2"/>
+      <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -743,7 +741,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
-      <c r="B11" s="2"/>
+      <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>

--- a/AgriMonitor/src/main/resources/static/excel/气候监测数据导入模板.xlsx
+++ b/AgriMonitor/src/main/resources/static/excel/气候监测数据导入模板.xlsx
@@ -18,10 +18,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
-    <t>刚察县</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>年份</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -103,6 +99,10 @@
   </si>
   <si>
     <t>2013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙柳河镇</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -503,7 +503,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -525,7 +525,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="21.75" customHeight="1">
       <c r="A1" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -542,10 +542,10 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="4"/>
@@ -561,48 +561,48 @@
     </row>
     <row r="3" spans="1:13" ht="40.5">
       <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="6" customFormat="1">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="5">
         <v>0.5</v>
@@ -633,7 +633,7 @@
     </row>
     <row r="5" spans="1:13" s="6" customFormat="1">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="5">
         <v>-0.1</v>
@@ -666,7 +666,7 @@
     </row>
     <row r="6" spans="1:13" s="6" customFormat="1">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="5">
         <v>1.1000000000000001</v>

--- a/AgriMonitor/src/main/resources/static/excel/气候监测数据导入模板.xlsx
+++ b/AgriMonitor/src/main/resources/static/excel/气候监测数据导入模板.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874DDA11-AC47-4330-B964-799A21024AB8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5820" yWindow="2220" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>年份</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,10 +87,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>所属乡镇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2011</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -99,18 +96,14 @@
   </si>
   <si>
     <t>2013</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沙柳河镇</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,7 +166,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -185,9 +178,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -216,7 +206,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -258,7 +248,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -290,9 +280,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -324,6 +332,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -499,14 +525,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14" style="2" customWidth="1"/>
     <col min="2" max="2" width="16" style="2" customWidth="1"/>
@@ -523,177 +549,158 @@
     <col min="13" max="13" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="21.75" customHeight="1">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
+      <c r="B3" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C3" s="4">
+        <v>23.5</v>
+      </c>
+      <c r="D3" s="4">
+        <v>-26.3</v>
+      </c>
+      <c r="E3" s="4">
+        <v>423.7</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4">
+        <v>25.5</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4">
+        <v>49</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4">
+        <v>32</v>
+      </c>
+      <c r="M3" s="4"/>
     </row>
-    <row r="3" spans="1:13" ht="40.5">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="6" customFormat="1">
+    <row r="4" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="C4" s="5">
-        <v>23.5</v>
-      </c>
-      <c r="D4" s="5">
-        <v>-26.3</v>
-      </c>
-      <c r="E4" s="5">
-        <v>423.7</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5">
-        <v>25.5</v>
-      </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5">
-        <v>49</v>
-      </c>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5">
-        <v>32</v>
-      </c>
-      <c r="M4" s="5"/>
+      <c r="B4" s="4">
+        <v>-0.1</v>
+      </c>
+      <c r="C4" s="4">
+        <v>21.1</v>
+      </c>
+      <c r="D4" s="4">
+        <v>-27.1</v>
+      </c>
+      <c r="E4" s="4">
+        <v>371.2</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4">
+        <v>19.2</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4">
+        <v>50</v>
+      </c>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4">
+        <v>34</v>
+      </c>
+      <c r="M4" s="4">
+        <v>9</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" s="6" customFormat="1">
+    <row r="5" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="5">
-        <v>-0.1</v>
-      </c>
-      <c r="C5" s="5">
-        <v>21.1</v>
-      </c>
-      <c r="D5" s="5">
-        <v>-27.1</v>
-      </c>
-      <c r="E5" s="5">
-        <v>371.2</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5">
-        <v>19.2</v>
-      </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5">
-        <v>50</v>
-      </c>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5">
-        <v>34</v>
-      </c>
-      <c r="M5" s="5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="6" customFormat="1">
-      <c r="A6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="5">
+      <c r="B5" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C5" s="4">
         <v>25.5</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D5" s="4">
         <v>-24.6</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E5" s="4">
         <v>375.3</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5">
+      <c r="F5" s="4"/>
+      <c r="G5" s="4">
         <v>33.200000000000003</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5">
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4">
         <v>28</v>
       </c>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5">
+      <c r="K5" s="4"/>
+      <c r="L5" s="4">
         <v>33</v>
       </c>
-      <c r="M6" s="5"/>
+      <c r="M5" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -706,12 +713,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -720,12 +727,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AgriMonitor/src/main/resources/static/excel/气候监测数据导入模板.xlsx
+++ b/AgriMonitor/src/main/resources/static/excel/气候监测数据导入模板.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874DDA11-AC47-4330-B964-799A21024AB8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3EB919B-3147-44A1-A423-337E987CD862}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>年份</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,18 +84,6 @@
   </si>
   <si>
     <t>刚察县气候监测数据导入模板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2012</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2013</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -166,24 +154,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -529,7 +511,7 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -550,21 +532,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
     </row>
     <row r="2" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -607,100 +589,100 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="4">
+    <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2011</v>
+      </c>
+      <c r="B3" s="1">
         <v>0.5</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="1">
         <v>23.5</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="1">
         <v>-26.3</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="1">
         <v>423.7</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4">
+      <c r="F3" s="1"/>
+      <c r="G3" s="1">
         <v>25.5</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4">
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1">
         <v>49</v>
       </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4">
+      <c r="K3" s="1"/>
+      <c r="L3" s="1">
         <v>32</v>
       </c>
-      <c r="M3" s="4"/>
+      <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="4">
+    <row r="4" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B4" s="1">
         <v>-0.1</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="1">
         <v>21.1</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="1">
         <v>-27.1</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="1">
         <v>371.2</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4">
+      <c r="F4" s="1"/>
+      <c r="G4" s="1">
         <v>19.2</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4">
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1">
         <v>50</v>
       </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4">
+      <c r="K4" s="1"/>
+      <c r="L4" s="1">
         <v>34</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="4">
+    <row r="5" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B5" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="1">
         <v>25.5</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="1">
         <v>-24.6</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="1">
         <v>375.3</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4">
+      <c r="F5" s="1"/>
+      <c r="G5" s="1">
         <v>33.200000000000003</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4">
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1">
         <v>28</v>
       </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4">
+      <c r="K5" s="1"/>
+      <c r="L5" s="1">
         <v>33</v>
       </c>
-      <c r="M5" s="4"/>
+      <c r="M5" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
